--- a/3 вариант/1 модуль/3 вариант.xlsx
+++ b/3 вариант/1 модуль/3 вариант.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komori\Desktop\дем экз\3 вариант\1 модуль\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#files\Demo-exam\3 вариант\1 модуль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FF8AA-C711-498D-93CC-8E72AE8F8C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562F476-4CDF-402E-B5D2-851E293B71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7350" windowWidth="16440" windowHeight="29040" activeTab="4" xr2:uid="{8A414178-1710-41CB-9DEB-3751546DE7E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8A414178-1710-41CB-9DEB-3751546DE7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -155,9 +155,6 @@
     <t>pavlov_coat</t>
   </si>
   <si>
-    <t>Sale</t>
-  </si>
-  <si>
     <t>Пальто и пуховики</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Жилеты</t>
   </si>
   <si>
-    <t>NameProduct</t>
-  </si>
-  <si>
     <t>Соколов</t>
   </si>
   <si>
@@ -279,6 +273,9 @@
   </si>
   <si>
     <t>GoodID</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -717,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF42C21-38EF-4B36-AF0D-B75C9D513495}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,8 +723,8 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -735,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1118,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1173,16 +1170,16 @@
         <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,13 +1193,13 @@
         <v>1234</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1219,13 +1216,13 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1242,13 +1239,13 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1265,13 +1262,13 @@
         <v>5555</v>
       </c>
       <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1288,13 +1285,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1311,13 +1308,13 @@
         <v>7777</v>
       </c>
       <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1334,13 +1331,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1357,13 +1354,13 @@
         <v>2222</v>
       </c>
       <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
         <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1380,13 +1377,13 @@
         <v>8888</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1403,13 +1400,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1476,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2409F665-0DFE-4A8A-8B1F-F035208324E6}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1495,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
